--- a/assets/SupplementaryTables.xlsx
+++ b/assets/SupplementaryTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bzmjg/Desktop/Live_Manuscripts/Zifang - eDNA_alleles_Zifang/LiveDraft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bzmjg/Desktop/Live_Manuscripts/Zifang - eDNA_alleles_Zifang/LiveDraft/SubmittedVersion_IScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE66B3BB-84FE-284D-96F0-334305685249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A8D4B6-429E-8647-8865-199DD7B2B8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="2240" windowWidth="26840" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="4" r:id="rId1"/>
@@ -1626,20 +1626,6 @@
   </si>
   <si>
     <r>
-      <t>Table S2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> – Primers used for generation of SNP-containing amplicons.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Table S1</t>
     </r>
     <r>
@@ -1765,9 +1751,6 @@
   </si>
   <si>
     <t>L17-10</t>
-  </si>
-  <si>
-    <t>Qubit concentration (ng/ul)</t>
   </si>
   <si>
     <r>
@@ -2013,6 +1996,23 @@
   </si>
   <si>
     <t>Table S4 – Numbers of reads with the reference and alternative alleles of 120 biallelic SNPs (across 98 loci) in 16 eDNA samples. Codes refer to  samples described in Table S3.</t>
+  </si>
+  <si>
+    <r>
+      <t>Table S2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – Primers used for generation of SNP-containing amplicons. Coordinates of 2 of the 100 primer pairs could not be located in the reference fAstCal1.2 genome, so were not included in data analyses, and are represented by NA in the "fAstCal1.2 position" and "Amplicon size" fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nanodrop concentration (ng/ul)</t>
   </si>
 </sst>
 </file>
@@ -2945,7 +2945,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3188,7 +3188,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -6130,11 +6130,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6143,14 +6141,14 @@
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6158,31 +6156,31 @@
         <v>505</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>507</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>536</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -6193,10 +6191,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="E4" s="1">
         <v>840</v>
@@ -6211,10 +6209,10 @@
         <v>0.41089999999999999</v>
       </c>
       <c r="I4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -6225,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="E5" s="1">
         <v>720</v>
@@ -6243,10 +6241,10 @@
         <v>0.74860000000000004</v>
       </c>
       <c r="I5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -6257,10 +6255,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="E6" s="1">
         <v>480</v>
@@ -6275,10 +6273,10 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="I6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -6289,10 +6287,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="E7" s="1">
         <v>480</v>
@@ -6307,10 +6305,10 @@
         <v>0.8044</v>
       </c>
       <c r="I7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -6321,10 +6319,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="E8" s="1">
         <v>720</v>
@@ -6339,10 +6337,10 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="I8" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -6353,10 +6351,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="E9" s="1">
         <v>1560</v>
@@ -6371,10 +6369,10 @@
         <v>0.62939999999999996</v>
       </c>
       <c r="I9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -6385,10 +6383,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="E10" s="1">
         <v>720</v>
@@ -6403,10 +6401,10 @@
         <v>0.94889999999999997</v>
       </c>
       <c r="I10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -6417,10 +6415,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="E11" s="1">
         <v>720</v>
@@ -6435,10 +6433,10 @@
         <v>0.26910000000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -6449,10 +6447,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="E12" s="1">
         <v>360</v>
@@ -6467,10 +6465,10 @@
         <v>0.3352</v>
       </c>
       <c r="I12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -6481,10 +6479,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="E13" s="1">
         <v>360</v>
@@ -6499,10 +6497,10 @@
         <v>0.24859999999999999</v>
       </c>
       <c r="I13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -6513,10 +6511,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="E14" s="1">
         <v>540</v>
@@ -6531,10 +6529,10 @@
         <v>0.65190000000000003</v>
       </c>
       <c r="I14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -6545,10 +6543,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="E15" s="1">
         <v>600</v>
@@ -6563,10 +6561,10 @@
         <v>0.52359999999999995</v>
       </c>
       <c r="I15" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -6577,10 +6575,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="E16" s="1">
         <v>480</v>
@@ -6595,10 +6593,10 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="I16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J16" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -6609,10 +6607,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="E17" s="1">
         <v>600</v>
@@ -6627,10 +6625,10 @@
         <v>0.2863</v>
       </c>
       <c r="I17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -6641,10 +6639,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="E18" s="1">
         <v>1320</v>
@@ -6659,10 +6657,10 @@
         <v>0.43969999999999998</v>
       </c>
       <c r="I18" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J18" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -6673,10 +6671,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="E19" s="1">
         <v>1020</v>
@@ -6691,11 +6689,113 @@
         <v>0.34960000000000002</v>
       </c>
       <c r="I19" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="J19" t="s">
-        <v>571</v>
-      </c>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:J34">
@@ -6709,9 +6809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BECE0B-82C7-B842-8850-29C51A405CAC}">
   <dimension ref="A1:AZ126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6720,7 +6818,7 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
@@ -6728,320 +6826,320 @@
     </row>
     <row r="3" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="W3" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="X3" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="Y3" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="Z3" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="AA3" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="AB3" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="AC3" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="AD3" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="AE3" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AL3" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AM3" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AN3" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AO3" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="AJ3" s="13" t="s">
+      <c r="AP3" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="AL3" s="13" t="s">
+      <c r="AR3" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AM3" s="13" t="s">
+      <c r="AS3" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AT3" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AO3" s="13" t="s">
+      <c r="AU3" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AP3" s="13" t="s">
+      <c r="AV3" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AQ3" s="13" t="s">
+      <c r="AW3" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="AR3" s="13" t="s">
+      <c r="AX3" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="AS3" s="13" t="s">
+      <c r="AY3" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="AT3" s="13" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>621</v>
-      </c>
-      <c r="AU3" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="AV3" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="AW3" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="AX3" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AY3" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="AZ3" s="13" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>646</v>
-      </c>
       <c r="E4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="H4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="K4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="N4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="Q4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="R4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="T4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="W4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="X4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="Z4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AA4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AC4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AD4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AF4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AH4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AG4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AI4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AK4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AJ4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AK4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AL4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AN4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AM4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AN4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AO4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AP4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AR4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AT4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AS4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AT4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AU4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AV4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AW4" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="AV4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AW4" s="13" t="s">
-        <v>608</v>
-      </c>
       <c r="AX4" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="AY4" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AZ4" s="13" t="s">
         <v>606</v>
-      </c>
-      <c r="AY4" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="AZ4" s="13" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B5" s="12">
         <v>18137392</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E5" s="12">
         <v>198</v>
@@ -7190,16 +7288,16 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B6" s="12">
         <v>18137417</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="E6" s="12">
         <v>162440</v>
@@ -7348,16 +7446,16 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B7" s="12">
         <v>18150733</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -7506,16 +7604,16 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B8" s="12">
         <v>18150845</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -7664,16 +7762,16 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B9" s="12">
         <v>18150859</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -7822,16 +7920,16 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B10" s="12">
         <v>4792398</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -7980,16 +8078,16 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B11" s="12">
         <v>5263686</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -8138,16 +8236,16 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B12" s="12">
         <v>5263716</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -8296,16 +8394,16 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B13" s="12">
         <v>5263727</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E13" s="12">
         <v>19</v>
@@ -8454,16 +8552,16 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B14" s="12">
         <v>5263733</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E14" s="12">
         <v>19</v>
@@ -8612,16 +8710,16 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B15" s="12">
         <v>5279322</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E15" s="12">
         <v>207</v>
@@ -8770,16 +8868,16 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B16" s="12">
         <v>5279324</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E16" s="12">
         <v>165419</v>
@@ -8928,16 +9026,16 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B17" s="12">
         <v>5828455</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="E17" s="12">
         <v>79</v>
@@ -9086,16 +9184,16 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B18" s="12">
         <v>13190037</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E18" s="12">
         <v>48370</v>
@@ -9244,16 +9342,16 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B19" s="12">
         <v>13190047</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E19" s="12">
         <v>48091</v>
@@ -9402,16 +9500,16 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B20" s="12">
         <v>19153366</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E20" s="12">
         <v>148</v>
@@ -9560,16 +9658,16 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B21" s="12">
         <v>19537179</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
@@ -9718,16 +9816,16 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B22" s="12">
         <v>19595229</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E22" s="12">
         <v>28</v>
@@ -9876,16 +9974,16 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B23" s="12">
         <v>19595965</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -10034,16 +10132,16 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B24" s="12">
         <v>19595985</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E24" s="12">
         <v>0</v>
@@ -10192,16 +10290,16 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B25" s="12">
         <v>19599045</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E25" s="12">
         <v>87</v>
@@ -10350,16 +10448,16 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B26" s="12">
         <v>19604268</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E26" s="12">
         <v>222</v>
@@ -10508,16 +10606,16 @@
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B27" s="12">
         <v>19631787</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E27" s="12">
         <v>400</v>
@@ -10666,16 +10764,16 @@
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B28" s="12">
         <v>19631811</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E28" s="12">
         <v>2</v>
@@ -10824,16 +10922,16 @@
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B29" s="12">
         <v>19648587</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E29" s="12">
         <v>0</v>
@@ -10982,16 +11080,16 @@
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B30" s="12">
         <v>19649641</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="E30" s="12">
         <v>249</v>
@@ -11140,16 +11238,16 @@
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B31" s="12">
         <v>210051</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E31" s="12">
         <v>11374</v>
@@ -11298,16 +11396,16 @@
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B32" s="12">
         <v>210064</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E32" s="12">
         <v>14360</v>
@@ -11456,16 +11554,16 @@
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B33" s="12">
         <v>210392</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E33" s="12">
         <v>0</v>
@@ -11614,16 +11712,16 @@
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B34" s="12">
         <v>4614399</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E34" s="12">
         <v>487</v>
@@ -11772,16 +11870,16 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B35" s="12">
         <v>5849073</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E35" s="12">
         <v>0</v>
@@ -11930,16 +12028,16 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B36" s="12">
         <v>5855008</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E36" s="12">
         <v>3</v>
@@ -12088,16 +12186,16 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B37" s="12">
         <v>18594335</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E37" s="12">
         <v>0</v>
@@ -12246,16 +12344,16 @@
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B38" s="12">
         <v>18605965</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E38" s="12">
         <v>0</v>
@@ -12404,16 +12502,16 @@
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B39" s="12">
         <v>18606438</v>
       </c>
       <c r="C39" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="E39" s="12">
         <v>115904</v>
@@ -12562,16 +12660,16 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B40" s="12">
         <v>18623601</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E40" s="12">
         <v>314036</v>
@@ -12720,16 +12818,16 @@
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B41" s="12">
         <v>4761965</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E41" s="12">
         <v>9059</v>
@@ -12878,16 +12976,16 @@
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B42" s="12">
         <v>4761973</v>
       </c>
       <c r="C42" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="E42" s="12">
         <v>0</v>
@@ -13036,16 +13134,16 @@
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B43" s="12">
         <v>4762004</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E43" s="12">
         <v>9054</v>
@@ -13194,16 +13292,16 @@
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B44" s="12">
         <v>4762256</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E44" s="12">
         <v>98702</v>
@@ -13352,16 +13450,16 @@
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B45" s="12">
         <v>4776530</v>
       </c>
       <c r="C45" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="E45" s="12">
         <v>152</v>
@@ -13510,16 +13608,16 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B46" s="12">
         <v>4779426</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E46" s="12">
         <v>244856</v>
@@ -13668,16 +13766,16 @@
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B47" s="12">
         <v>6569251</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E47" s="12">
         <v>422</v>
@@ -13826,16 +13924,16 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B48" s="12">
         <v>6572405</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E48" s="12">
         <v>230</v>
@@ -13984,16 +14082,16 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B49" s="12">
         <v>9107773</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E49" s="12">
         <v>0</v>
@@ -14142,16 +14240,16 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B50" s="12">
         <v>9107785</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E50" s="12">
         <v>0</v>
@@ -14300,16 +14398,16 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B51" s="12">
         <v>9110585</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E51" s="12">
         <v>0</v>
@@ -14458,16 +14556,16 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B52" s="12">
         <v>15176979</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E52" s="12">
         <v>28</v>
@@ -14616,16 +14714,16 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B53" s="12">
         <v>5101740</v>
       </c>
       <c r="C53" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="E53" s="12">
         <v>6885</v>
@@ -14774,16 +14872,16 @@
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B54" s="12">
         <v>5101916</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E54" s="12">
         <v>89</v>
@@ -14932,16 +15030,16 @@
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B55" s="12">
         <v>5101918</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E55" s="12">
         <v>89</v>
@@ -15090,16 +15188,16 @@
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B56" s="12">
         <v>18256976</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E56" s="12">
         <v>0</v>
@@ -15248,16 +15346,16 @@
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B57" s="12">
         <v>18257186</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E57" s="12">
         <v>79</v>
@@ -15406,16 +15504,16 @@
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B58" s="12">
         <v>20071062</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E58" s="12">
         <v>16</v>
@@ -15564,16 +15662,16 @@
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B59" s="12">
         <v>11958053</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E59" s="12">
         <v>12</v>
@@ -15722,16 +15820,16 @@
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B60" s="12">
         <v>12453281</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E60" s="12">
         <v>46</v>
@@ -15880,16 +15978,16 @@
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B61" s="12">
         <v>5822194</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E61" s="12">
         <v>12</v>
@@ -16038,16 +16136,16 @@
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B62" s="12">
         <v>19393593</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E62" s="12">
         <v>2</v>
@@ -16196,16 +16294,16 @@
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B63" s="12">
         <v>31299865</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E63" s="12">
         <v>2</v>
@@ -16354,16 +16452,16 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B64" s="12">
         <v>7227281</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E64" s="12">
         <v>15255</v>
@@ -16512,16 +16610,16 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B65" s="12">
         <v>7229248</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E65" s="12">
         <v>14500</v>
@@ -16670,16 +16768,16 @@
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B66" s="12">
         <v>10792068</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E66" s="12">
         <v>132434</v>
@@ -16828,16 +16926,16 @@
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B67" s="12">
         <v>37053335</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E67" s="12">
         <v>102</v>
@@ -16986,16 +17084,16 @@
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B68" s="12">
         <v>16249721</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E68" s="12">
         <v>22445</v>
@@ -17144,16 +17242,16 @@
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B69" s="12">
         <v>8360191</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E69" s="12">
         <v>46</v>
@@ -17302,16 +17400,16 @@
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B70" s="12">
         <v>8360203</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E70" s="12">
         <v>46</v>
@@ -17460,16 +17558,16 @@
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B71" s="12">
         <v>8360596</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E71" s="12">
         <v>2</v>
@@ -17618,16 +17716,16 @@
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B72" s="12">
         <v>8360599</v>
       </c>
       <c r="C72" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="E72" s="12">
         <v>2</v>
@@ -17776,16 +17874,16 @@
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B73" s="12">
         <v>9118070</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E73" s="12">
         <v>50</v>
@@ -17934,16 +18032,16 @@
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B74" s="12">
         <v>4530533</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E74" s="12">
         <v>0</v>
@@ -18092,16 +18190,16 @@
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B75" s="12">
         <v>4530578</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E75" s="12">
         <v>0</v>
@@ -18250,16 +18348,16 @@
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B76" s="12">
         <v>4530611</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E76" s="12">
         <v>0</v>
@@ -18408,16 +18506,16 @@
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B77" s="12">
         <v>7226723</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E77" s="12">
         <v>42</v>
@@ -18566,16 +18664,16 @@
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B78" s="12">
         <v>10794229</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E78" s="12">
         <v>48</v>
@@ -18724,16 +18822,16 @@
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B79" s="12">
         <v>12237899</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E79" s="12">
         <v>156</v>
@@ -18882,16 +18980,16 @@
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B80" s="12">
         <v>12237940</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E80" s="12">
         <v>162</v>
@@ -19040,16 +19138,16 @@
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B81" s="12">
         <v>23282694</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E81" s="12">
         <v>4</v>
@@ -19198,16 +19296,16 @@
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B82" s="12">
         <v>23305446</v>
       </c>
       <c r="C82" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D82" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="E82" s="12">
         <v>0</v>
@@ -19356,16 +19454,16 @@
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B83" s="12">
         <v>23305463</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E83" s="12">
         <v>0</v>
@@ -19514,16 +19612,16 @@
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B84" s="12">
         <v>25383274</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E84" s="12">
         <v>77</v>
@@ -19672,16 +19770,16 @@
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B85" s="12">
         <v>25397676</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E85" s="12">
         <v>0</v>
@@ -19830,16 +19928,16 @@
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B86" s="12">
         <v>25397837</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E86" s="12">
         <v>0</v>
@@ -19988,16 +20086,16 @@
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B87" s="12">
         <v>25397853</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E87" s="12">
         <v>0</v>
@@ -20146,16 +20244,16 @@
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B88" s="12">
         <v>25493724</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E88" s="12">
         <v>15</v>
@@ -20304,16 +20402,16 @@
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B89" s="12">
         <v>25627794</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E89" s="12">
         <v>67</v>
@@ -20462,16 +20560,16 @@
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B90" s="12">
         <v>25655020</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E90" s="12">
         <v>20</v>
@@ -20620,16 +20718,16 @@
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B91" s="12">
         <v>25658407</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E91" s="12">
         <v>0</v>
@@ -20778,16 +20876,16 @@
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B92" s="12">
         <v>25658413</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E92" s="12">
         <v>520</v>
@@ -20936,16 +21034,16 @@
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B93" s="12">
         <v>25821027</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E93" s="12">
         <v>190083</v>
@@ -21094,16 +21192,16 @@
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B94" s="12">
         <v>25828048</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E94" s="12">
         <v>0</v>
@@ -21252,16 +21350,16 @@
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B95" s="12">
         <v>25828049</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E95" s="12">
         <v>0</v>
@@ -21410,16 +21508,16 @@
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B96" s="12">
         <v>25848730</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E96" s="12">
         <v>0</v>
@@ -21568,16 +21666,16 @@
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B97" s="12">
         <v>25961280</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E97" s="12">
         <v>3921</v>
@@ -21726,16 +21824,16 @@
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B98" s="12">
         <v>25966154</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E98" s="12">
         <v>0</v>
@@ -21884,16 +21982,16 @@
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B99" s="12">
         <v>25966397</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E99" s="12">
         <v>4988</v>
@@ -22042,16 +22140,16 @@
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B100" s="12">
         <v>26003885</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E100" s="12">
         <v>0</v>
@@ -22200,16 +22298,16 @@
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B101" s="12">
         <v>26003914</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E101" s="12">
         <v>320</v>
@@ -22358,16 +22456,16 @@
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B102" s="12">
         <v>26064004</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E102" s="12">
         <v>0</v>
@@ -22516,16 +22614,16 @@
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B103" s="12">
         <v>26103780</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E103" s="12">
         <v>10134</v>
@@ -22674,16 +22772,16 @@
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B104" s="12">
         <v>26120982</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E104" s="12">
         <v>39</v>
@@ -22832,16 +22930,16 @@
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B105" s="12">
         <v>26121236</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E105" s="12">
         <v>275</v>
@@ -22990,16 +23088,16 @@
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B106" s="12">
         <v>26122873</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E106" s="12">
         <v>487</v>
@@ -23148,16 +23246,16 @@
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B107" s="12">
         <v>26122894</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E107" s="12">
         <v>2</v>
@@ -23306,16 +23404,16 @@
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B108" s="12">
         <v>26387865</v>
       </c>
       <c r="C108" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D108" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="E108" s="12">
         <v>106</v>
@@ -23464,16 +23562,16 @@
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B109" s="12">
         <v>26387866</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E109" s="12">
         <v>106</v>
@@ -23622,16 +23720,16 @@
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B110" s="12">
         <v>26387892</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E110" s="12">
         <v>61</v>
@@ -23780,16 +23878,16 @@
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B111" s="12">
         <v>26589565</v>
       </c>
       <c r="C111" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="D111" s="12" t="s">
         <v>626</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="E111" s="12">
         <v>0</v>
@@ -23938,16 +24036,16 @@
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B112" s="12">
         <v>26630333</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E112" s="12">
         <v>0</v>
@@ -24096,16 +24194,16 @@
     </row>
     <row r="113" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B113" s="12">
         <v>26633041</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E113" s="12">
         <v>0</v>
@@ -24254,16 +24352,16 @@
     </row>
     <row r="114" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B114" s="12">
         <v>26646666</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E114" s="12">
         <v>761</v>
@@ -24412,16 +24510,16 @@
     </row>
     <row r="115" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B115" s="12">
         <v>26646679</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E115" s="12">
         <v>0</v>
@@ -24570,16 +24668,16 @@
     </row>
     <row r="116" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B116" s="12">
         <v>26646729</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E116" s="12">
         <v>722</v>
@@ -24728,16 +24826,16 @@
     </row>
     <row r="117" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B117" s="12">
         <v>31202750</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E117" s="12">
         <v>2</v>
@@ -24886,16 +24984,16 @@
     </row>
     <row r="118" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B118" s="12">
         <v>31218586</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E118" s="12">
         <v>29</v>
@@ -25044,16 +25142,16 @@
     </row>
     <row r="119" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B119" s="12">
         <v>31218590</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E119" s="12">
         <v>13</v>
@@ -25202,16 +25300,16 @@
     </row>
     <row r="120" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B120" s="12">
         <v>38367202</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E120" s="12">
         <v>58351</v>
@@ -25360,16 +25458,16 @@
     </row>
     <row r="121" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B121" s="12">
         <v>38371703</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E121" s="12">
         <v>2</v>
@@ -25518,16 +25616,16 @@
     </row>
     <row r="122" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B122" s="12">
         <v>38371714</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E122" s="12">
         <v>2</v>
@@ -25676,16 +25774,16 @@
     </row>
     <row r="123" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B123" s="12">
         <v>39302684</v>
       </c>
       <c r="C123" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D123" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>627</v>
       </c>
       <c r="E123" s="12">
         <v>0</v>
@@ -25834,16 +25932,16 @@
     </row>
     <row r="124" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B124" s="12">
         <v>39302699</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E124" s="12">
         <v>0</v>
